--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntn1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntn1-Notch1.xlsx
@@ -546,10 +546,10 @@
         <v>0.35974</v>
       </c>
       <c r="I2">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="J2">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N2">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O2">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P2">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q2">
-        <v>7.211993093791111</v>
+        <v>8.230536427500001</v>
       </c>
       <c r="R2">
-        <v>64.90793784412</v>
+        <v>74.0748278475</v>
       </c>
       <c r="S2">
-        <v>0.2836094691089779</v>
+        <v>0.1678537125958819</v>
       </c>
       <c r="T2">
-        <v>0.2836094691089778</v>
+        <v>0.1678537125958819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.35974</v>
       </c>
       <c r="I3">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="J3">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P3">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q3">
         <v>1.325051286862222</v>
@@ -638,10 +638,10 @@
         <v>11.92546158176</v>
       </c>
       <c r="S3">
-        <v>0.05210724512932367</v>
+        <v>0.02702312052670577</v>
       </c>
       <c r="T3">
-        <v>0.05210724512932366</v>
+        <v>0.02702312052670577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.35974</v>
       </c>
       <c r="I4">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="J4">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N4">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q4">
-        <v>1.469518314155556</v>
+        <v>1.943902535708889</v>
       </c>
       <c r="R4">
-        <v>13.2256648274</v>
+        <v>17.49512282138</v>
       </c>
       <c r="S4">
-        <v>0.05778836772353246</v>
+        <v>0.0396439843766533</v>
       </c>
       <c r="T4">
-        <v>0.05778836772353245</v>
+        <v>0.0396439843766533</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.35974</v>
       </c>
       <c r="I5">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="J5">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N5">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q5">
-        <v>1.841651636953333</v>
+        <v>2.437293939931111</v>
       </c>
       <c r="R5">
-        <v>16.57486473258</v>
+        <v>21.93564545938</v>
       </c>
       <c r="S5">
-        <v>0.07242239922410318</v>
+        <v>0.0497062178277907</v>
       </c>
       <c r="T5">
-        <v>0.07242239922410316</v>
+        <v>0.0497062178277907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.35974</v>
       </c>
       <c r="I6">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="J6">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N6">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q6">
-        <v>1.57333476142</v>
+        <v>1.260760152906667</v>
       </c>
       <c r="R6">
-        <v>14.16001285278</v>
+        <v>11.34684137616</v>
       </c>
       <c r="S6">
-        <v>0.06187091842907839</v>
+        <v>0.02571196594808288</v>
       </c>
       <c r="T6">
-        <v>0.06187091842907837</v>
+        <v>0.02571196594808288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="H7">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="I7">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="J7">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N7">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O7">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P7">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q7">
-        <v>6.452302021638667</v>
+        <v>18.3248063775</v>
       </c>
       <c r="R7">
-        <v>58.070718194748</v>
+        <v>164.9232573975</v>
       </c>
       <c r="S7">
-        <v>0.253734845151632</v>
+        <v>0.3737164412257343</v>
       </c>
       <c r="T7">
-        <v>0.253734845151632</v>
+        <v>0.3737164412257343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="H8">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="I8">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="J8">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P8">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q8">
-        <v>1.185474110389333</v>
+        <v>2.950148934506667</v>
       </c>
       <c r="R8">
-        <v>10.669266993504</v>
+        <v>26.55134041056001</v>
       </c>
       <c r="S8">
-        <v>0.04661841445458471</v>
+        <v>0.0601653921016838</v>
       </c>
       <c r="T8">
-        <v>0.04661841445458471</v>
+        <v>0.06016539210168378</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="H9">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="I9">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="J9">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N9">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q9">
-        <v>1.314723387273333</v>
+        <v>4.327984925086668</v>
       </c>
       <c r="R9">
-        <v>11.83251048546</v>
+        <v>38.95186432578001</v>
       </c>
       <c r="S9">
-        <v>0.05170110357021191</v>
+        <v>0.08826500485527521</v>
       </c>
       <c r="T9">
-        <v>0.0517011035702119</v>
+        <v>0.08826500485527519</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="H10">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="I10">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="J10">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N10">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q10">
-        <v>1.647657232298</v>
+        <v>5.426491933753335</v>
       </c>
       <c r="R10">
-        <v>14.828915090682</v>
+        <v>48.83842740378001</v>
       </c>
       <c r="S10">
-        <v>0.06479362734386145</v>
+        <v>0.1106679771695966</v>
       </c>
       <c r="T10">
-        <v>0.06479362734386143</v>
+        <v>0.1106679771695966</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="H11">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="I11">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="J11">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N11">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q11">
-        <v>1.407604101918</v>
+        <v>2.80700849744</v>
       </c>
       <c r="R11">
-        <v>12.668436917262</v>
+        <v>25.26307647696</v>
       </c>
       <c r="S11">
-        <v>0.0553536098646944</v>
+        <v>0.0572461833725955</v>
       </c>
       <c r="T11">
-        <v>0.05535360986469439</v>
+        <v>0.0572461833725955</v>
       </c>
     </row>
   </sheetData>
